--- a/src/data/Infrastructure.xlsx
+++ b/src/data/Infrastructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00000OneCall\0000CIObrain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00000S22-CIObrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00758570-B736-4533-BDA7-98FB362664B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B1966E-C5FF-42A5-9606-FF19C384C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="21744" windowHeight="9210" xr2:uid="{DC75A604-7F14-4874-ACAD-732E5A706C0E}"/>
+    <workbookView xWindow="1830" yWindow="918" windowWidth="20208" windowHeight="12042" xr2:uid="{DC75A604-7F14-4874-ACAD-732E5A706C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>web primary in</t>
-  </si>
-  <si>
-    <t>I-8</t>
   </si>
   <si>
     <t>D-1</t>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>server-4</t>
-  </si>
-  <si>
-    <t>I-1</t>
   </si>
   <si>
     <t>Apache</t>
@@ -655,7 +649,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -678,13 +672,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -702,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
@@ -717,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -728,23 +722,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -759,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>11</v>
@@ -770,38 +764,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>11</v>
@@ -812,21 +806,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
@@ -838,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -852,13 +846,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -876,18 +870,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -902,10 +896,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -924,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -949,21 +943,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
